--- a/planilha_notas_atualizada.xlsx
+++ b/planilha_notas_atualizada.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_150D52635124852A08EB41F34F95C8B4414EB55E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D55331-9AE0-4A7D-8439-1D4774D31E59}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_150D52635124852A08EB41F34F95C8B4414EB55E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBE394E0-3658-4382-B425-BCAB61063818}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="1017">
   <si>
     <t>Contrato</t>
   </si>
@@ -3131,23 +3131,6 @@
     <t xml:space="preserve"> LOCAÇÃO DE PAVILHÕES (STANDS) BRONZE EM ÁREA DE EXPOSIÇÃO DA
 GREEN ZONE, DA CONFERÊNCIA DAS NAÇÕES UNIDAS SOBRE MUDANÇAS CLIMÁTICAS DE 2025-COP30, QUE
 OCORRERÁ EM BELÉM, NO ESTADO DO PARÁ, DO DIA 10 A 21 DE NOVEMBRO DE 2025</t>
-  </si>
-  <si>
-    <t>0121/2025</t>
-  </si>
-  <si>
-    <t>NE001269</t>
-  </si>
-  <si>
-    <t>BAIXADA FLUMINENSE
-BELO HORIZONTE
-JUIZ DE FORA
-NITERÓI
-RIO DE JANEIRO
-VITÓRIA</t>
-  </si>
-  <si>
-    <t>FORNECIMENTO DE COPOS PLÁSTICOS, VISANDO SUPRIR A DEMANDA DAS UNIDADES DA DPU NA REGIÃO SUDESTE</t>
   </si>
 </sst>
 </file>
@@ -3926,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S511"/>
+  <dimension ref="A1:S510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F375" workbookViewId="0">
-      <selection activeCell="U383" sqref="U383"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A511" sqref="A511:XFD511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33821,65 +33804,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="63.75" customHeight="1">
-      <c r="A511" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B511" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C511" s="20" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D511" s="9" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E511" s="9" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F511">
-        <v>28141.8</v>
-      </c>
-      <c r="G511">
-        <v>28141.8</v>
-      </c>
-      <c r="H511">
-        <v>0</v>
-      </c>
-      <c r="I511">
-        <v>0</v>
-      </c>
-      <c r="J511">
-        <v>0</v>
-      </c>
-      <c r="K511">
-        <v>0</v>
-      </c>
-      <c r="L511">
-        <v>0</v>
-      </c>
-      <c r="M511">
-        <v>0</v>
-      </c>
-      <c r="N511">
-        <v>0</v>
-      </c>
-      <c r="O511">
-        <v>0</v>
-      </c>
-      <c r="P511">
-        <v>28141.8</v>
-      </c>
-      <c r="Q511">
-        <v>0</v>
-      </c>
-      <c r="R511">
-        <v>0</v>
-      </c>
-      <c r="S511">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
